--- a/data/trans_orig/P21-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0039CA81-B0D1-41CE-9CB2-F4D00A6028A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1171486C-1322-4EE0-A617-85101795FFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62EF6A70-63DA-466C-B8BB-2B8833723805}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF338DC8-72A4-4572-AD3C-405504F143DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="407">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,1144 +77,1153 @@
     <t>80,73%</t>
   </si>
   <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
   </si>
   <si>
     <t>76,98%</t>
   </si>
   <si>
-    <t>75,16%</t>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>Sí acudieron a mi domicilio</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>Sí acudí a un centro o servicio</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>78,8%</t>
   </si>
   <si>
-    <t>Sí acudieron a mi domicilio</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2015 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>Sí acudí a un centro o servicio</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>0,14%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
   </si>
   <si>
     <t>24,57%</t>
   </si>
   <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
     <t>25,18%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
+    <t>25,11%</t>
   </si>
   <si>
     <t>79,69%</t>
   </si>
   <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
   </si>
   <si>
     <t>73,08%</t>
   </si>
   <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>76,19%</t>
   </si>
   <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>1,13%</t>
+    <t>1,18%</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -1223,28 +1232,34 @@
     <t>0,56%</t>
   </si>
   <si>
+    <t>0,94%</t>
+  </si>
+  <si>
     <t>19,7%</t>
   </si>
   <si>
-    <t>21,35%</t>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
   </si>
   <si>
     <t>26,09%</t>
   </si>
   <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0EC8CC-70B1-47CA-8F58-6140667BB2DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CB469A-B1A9-419A-B3A7-F58A7C127DA0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1864,16 +1879,16 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>194</v>
@@ -1882,13 +1897,13 @@
         <v>190069</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>314</v>
@@ -1897,13 +1912,13 @@
         <v>319293</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>508</v>
@@ -1912,13 +1927,13 @@
         <v>509362</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1933,13 +1948,13 @@
         <v>1031723</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1291</v>
@@ -1948,13 +1963,13 @@
         <v>1315113</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>2329</v>
@@ -1963,18 +1978,18 @@
         <v>2346836</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1986,13 +2001,13 @@
         <v>1410578</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>1186</v>
@@ -2001,13 +2016,13 @@
         <v>1210286</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>2561</v>
@@ -2016,10 +2031,10 @@
         <v>2620863</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>49</v>
@@ -2079,7 +2094,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>265</v>
@@ -2124,7 +2139,7 @@
         <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,13 +2154,13 @@
         <v>1692528</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>1553</v>
@@ -2154,13 +2169,13 @@
         <v>1586733</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>3201</v>
@@ -2169,18 +2184,18 @@
         <v>3279260</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2192,13 +2207,13 @@
         <v>471800</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>351</v>
@@ -2207,13 +2222,13 @@
         <v>370317</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>805</v>
@@ -2222,13 +2237,13 @@
         <v>842117</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2258,13 @@
         <v>2563</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2258,10 +2273,10 @@
         <v>1015</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>81</v>
@@ -2285,7 +2300,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>71</v>
@@ -2345,13 +2360,13 @@
         <v>551408</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>452</v>
@@ -2360,13 +2375,13 @@
         <v>476412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>979</v>
@@ -2375,13 +2390,13 @@
         <v>1027820</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,16 +2497,16 @@
         <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>530</v>
@@ -2500,13 +2515,13 @@
         <v>540737</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>769</v>
@@ -2515,13 +2530,13 @@
         <v>788556</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>1299</v>
@@ -2530,13 +2545,13 @@
         <v>1329293</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2566,13 @@
         <v>3275658</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>3296</v>
@@ -2566,13 +2581,13 @@
         <v>3378257</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>6509</v>
@@ -2581,18 +2596,18 @@
         <v>6653916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2611,7 +2626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797EC1DE-6A35-4111-A5D6-670CC8169568}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A0F467-2692-40E3-A5C9-EE8F61D61CAE}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2628,7 +2643,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2735,13 +2750,13 @@
         <v>722968</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>862</v>
@@ -2750,13 +2765,13 @@
         <v>927031</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>1538</v>
@@ -2765,13 +2780,13 @@
         <v>1649999</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2801,13 @@
         <v>17486</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -2801,13 +2816,13 @@
         <v>40646</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -2816,19 +2831,19 @@
         <v>58132</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>214</v>
@@ -2837,13 +2852,13 @@
         <v>233462</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H6" s="7">
         <v>347</v>
@@ -2852,13 +2867,13 @@
         <v>369161</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M6" s="7">
         <v>561</v>
@@ -2867,13 +2882,13 @@
         <v>602623</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,13 +2903,13 @@
         <v>973916</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1246</v>
@@ -2903,13 +2918,13 @@
         <v>1336838</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>2153</v>
@@ -2918,18 +2933,18 @@
         <v>2310754</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2941,13 +2956,13 @@
         <v>1576585</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>1212</v>
@@ -2956,13 +2971,13 @@
         <v>1302463</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="M8" s="7">
         <v>2701</v>
@@ -2971,13 +2986,13 @@
         <v>2879048</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +3007,13 @@
         <v>16852</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -3010,10 +3025,10 @@
         <v>102</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -3022,19 +3037,19 @@
         <v>27431</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>348</v>
@@ -3043,13 +3058,13 @@
         <v>368567</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>411</v>
@@ -3058,13 +3073,13 @@
         <v>442613</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>759</v>
@@ -3073,13 +3088,13 @@
         <v>811180</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3109,13 @@
         <v>1962003</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>1633</v>
@@ -3109,13 +3124,13 @@
         <v>1755656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>3487</v>
@@ -3124,18 +3139,18 @@
         <v>3717659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3147,13 +3162,13 @@
         <v>411717</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H12" s="7">
         <v>311</v>
@@ -3162,13 +3177,13 @@
         <v>344323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M12" s="7">
         <v>683</v>
@@ -3177,13 +3192,13 @@
         <v>756040</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3213,13 +3228,13 @@
         <v>956</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3231,16 +3246,16 @@
         <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>66</v>
@@ -3249,13 +3264,13 @@
         <v>69464</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>100</v>
@@ -3264,13 +3279,13 @@
         <v>113352</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>166</v>
@@ -3282,10 +3297,10 @@
         <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3315,13 @@
         <v>481181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>412</v>
@@ -3315,13 +3330,13 @@
         <v>458631</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>850</v>
@@ -3330,13 +3345,13 @@
         <v>939812</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3368,13 @@
         <v>2711270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>2385</v>
@@ -3368,28 +3383,28 @@
         <v>2573817</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>4922</v>
       </c>
       <c r="N16" s="7">
-        <v>5285088</v>
+        <v>5285087</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3419,13 @@
         <v>34338</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -3419,13 +3434,13 @@
         <v>52181</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
@@ -3434,19 +3449,19 @@
         <v>86519</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>628</v>
@@ -3455,13 +3470,13 @@
         <v>671493</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H18" s="7">
         <v>858</v>
@@ -3470,13 +3485,13 @@
         <v>925126</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M18" s="7">
         <v>1486</v>
@@ -3485,13 +3500,13 @@
         <v>1596619</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3521,13 @@
         <v>3417101</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>3291</v>
@@ -3521,33 +3536,33 @@
         <v>3551124</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>6490</v>
       </c>
       <c r="N19" s="7">
-        <v>6968226</v>
+        <v>6968225</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3566,7 +3581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678EAB07-CD69-42A3-892F-D5196F06C60A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2883B3-CF0D-4CE2-89B2-28E895E11FEC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3583,7 +3598,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3690,13 +3705,13 @@
         <v>613283</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H4" s="7">
         <v>693</v>
@@ -3705,13 +3720,13 @@
         <v>764778</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>1311</v>
@@ -3720,13 +3735,13 @@
         <v>1378061</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3756,13 @@
         <v>16616</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -3756,13 +3771,13 @@
         <v>25680</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -3771,19 +3786,19 @@
         <v>42296</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>125</v>
@@ -3792,13 +3807,13 @@
         <v>122455</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H6" s="7">
         <v>177</v>
@@ -3807,13 +3822,13 @@
         <v>201315</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M6" s="7">
         <v>302</v>
@@ -3822,13 +3837,13 @@
         <v>323769</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3858,13 @@
         <v>752354</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>890</v>
@@ -3858,13 +3873,13 @@
         <v>991773</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>1650</v>
@@ -3873,18 +3888,18 @@
         <v>1744127</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3896,13 +3911,13 @@
         <v>1722779</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H8" s="7">
         <v>1529</v>
@@ -3911,13 +3926,13 @@
         <v>1592548</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M8" s="7">
         <v>3157</v>
@@ -3926,13 +3941,13 @@
         <v>3315328</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,13 +3962,13 @@
         <v>28535</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -3962,13 +3977,13 @@
         <v>24260</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M9" s="7">
         <v>50</v>
@@ -3977,19 +3992,19 @@
         <v>52795</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>257</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>291</v>
@@ -3998,13 +4013,13 @@
         <v>318324</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>355</v>
@@ -4013,13 +4028,13 @@
         <v>370607</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>646</v>
@@ -4028,13 +4043,13 @@
         <v>688931</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4064,13 @@
         <v>2069638</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>1907</v>
@@ -4064,13 +4079,13 @@
         <v>1987416</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>3853</v>
@@ -4079,18 +4094,18 @@
         <v>4057054</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4102,13 +4117,13 @@
         <v>470067</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H12" s="7">
         <v>395</v>
@@ -4117,13 +4132,13 @@
         <v>411198</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M12" s="7">
         <v>828</v>
@@ -4132,13 +4147,13 @@
         <v>881265</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4168,13 @@
         <v>1057</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>25</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -4168,13 +4183,13 @@
         <v>10615</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4183,19 +4198,19 @@
         <v>11672</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>65</v>
@@ -4204,13 +4219,13 @@
         <v>73835</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>119</v>
@@ -4255,13 +4270,13 @@
         <v>544959</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>524</v>
@@ -4270,13 +4285,13 @@
         <v>546453</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1023</v>
@@ -4285,13 +4300,13 @@
         <v>1091412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4323,13 @@
         <v>2806130</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>2617</v>
@@ -4323,10 +4338,10 @@
         <v>2768525</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>292</v>
@@ -4359,13 +4374,13 @@
         <v>46208</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>296</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -4374,10 +4389,10 @@
         <v>60556</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>27</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>299</v>
@@ -4392,16 +4407,16 @@
         <v>300</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>481</v>
@@ -4410,13 +4425,13 @@
         <v>514614</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="H18" s="7">
         <v>651</v>
@@ -4425,13 +4440,13 @@
         <v>696561</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M18" s="7">
         <v>1132</v>
@@ -4440,13 +4455,13 @@
         <v>1211175</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4476,13 @@
         <v>3366952</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>3321</v>
@@ -4476,13 +4491,13 @@
         <v>3525642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>6526</v>
@@ -4491,18 +4506,18 @@
         <v>6892593</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4521,7 +4536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EF050D-B4A1-43E7-AA04-41CC7C9D6CE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B75F244-B761-4B44-B7E2-6761C8475D52}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4538,7 +4553,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4645,13 +4660,13 @@
         <v>405443</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H4" s="7">
         <v>1011</v>
@@ -4660,13 +4675,13 @@
         <v>591016</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M4" s="7">
         <v>1531</v>
@@ -4675,13 +4690,13 @@
         <v>996459</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4711,13 @@
         <v>7999</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>107</v>
+        <v>320</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>319</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>34</v>
@@ -4711,13 +4726,13 @@
         <v>22458</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -4726,19 +4741,19 @@
         <v>30457</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>161</v>
@@ -4747,13 +4762,13 @@
         <v>128192</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H6" s="7">
         <v>378</v>
@@ -4762,13 +4777,13 @@
         <v>217851</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M6" s="7">
         <v>539</v>
@@ -4777,13 +4792,13 @@
         <v>346043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4813,13 @@
         <v>541634</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1423</v>
@@ -4813,13 +4828,13 @@
         <v>831326</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>2114</v>
@@ -4828,18 +4843,18 @@
         <v>1372960</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4851,13 +4866,13 @@
         <v>1755459</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H8" s="7">
         <v>2258</v>
@@ -4866,13 +4881,13 @@
         <v>1647959</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M8" s="7">
         <v>3867</v>
@@ -4881,13 +4896,13 @@
         <v>3403418</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,13 +4917,13 @@
         <v>7944</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>103</v>
+        <v>344</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -4917,13 +4932,13 @@
         <v>5911</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -4932,19 +4947,19 @@
         <v>13855</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>373</v>
@@ -4953,13 +4968,13 @@
         <v>398619</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>650</v>
@@ -4968,13 +4983,13 @@
         <v>591474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>214</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>1023</v>
@@ -4983,13 +4998,13 @@
         <v>990093</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +5019,13 @@
         <v>2162022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>2918</v>
@@ -5019,13 +5034,13 @@
         <v>2245344</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>4910</v>
@@ -5034,18 +5049,18 @@
         <v>4407366</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5057,13 +5072,13 @@
         <v>528546</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H12" s="7">
         <v>765</v>
@@ -5072,13 +5087,13 @@
         <v>530441</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="M12" s="7">
         <v>1305</v>
@@ -5087,13 +5102,13 @@
         <v>1058987</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5123,13 @@
         <v>4676</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>365</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5123,13 +5138,13 @@
         <v>2986</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -5138,19 +5153,19 @@
         <v>7661</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>135</v>
@@ -5159,13 +5174,13 @@
         <v>137879</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>378</v>
       </c>
       <c r="H14" s="7">
         <v>233</v>
@@ -5174,13 +5189,13 @@
         <v>179516</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M14" s="7">
         <v>368</v>
@@ -5189,13 +5204,13 @@
         <v>317395</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,13 +5225,13 @@
         <v>671100</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>1003</v>
@@ -5225,13 +5240,13 @@
         <v>712943</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>1683</v>
@@ -5240,13 +5255,13 @@
         <v>1384044</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,13 +5278,13 @@
         <v>2689448</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>4034</v>
@@ -5278,13 +5293,13 @@
         <v>2769416</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>6703</v>
@@ -5293,13 +5308,13 @@
         <v>5458864</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5329,13 @@
         <v>20619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>54</v>
+        <v>344</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>251</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5332,10 +5347,10 @@
         <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>74</v>
@@ -5344,19 +5359,19 @@
         <v>51974</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>669</v>
@@ -5365,13 +5380,13 @@
         <v>664689</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>267</v>
+        <v>399</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H18" s="7">
         <v>1261</v>
@@ -5380,28 +5395,28 @@
         <v>988842</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="M18" s="7">
         <v>1930</v>
       </c>
       <c r="N18" s="7">
-        <v>1653531</v>
+        <v>1653532</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,13 +5431,13 @@
         <v>3374756</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>5344</v>
@@ -5431,33 +5446,33 @@
         <v>3789613</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>8707</v>
       </c>
       <c r="N19" s="7">
-        <v>7164369</v>
+        <v>7164370</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1171486C-1322-4EE0-A617-85101795FFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32A8DAE8-1A15-40E7-9462-B5C63D4F5485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF338DC8-72A4-4572-AD3C-405504F143DF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{383DCCAE-A606-429B-BAA4-A8E1CC5ADBD4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="406">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,1162 +77,1159 @@
     <t>80,73%</t>
   </si>
   <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
   </si>
   <si>
     <t>76,98%</t>
   </si>
   <si>
-    <t>75,19%</t>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>Sí acudieron a mi domicilio</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>Sí acudí a un centro o servicio</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
   </si>
   <si>
     <t>78,69%</t>
   </si>
   <si>
-    <t>Sí acudieron a mi domicilio</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>Sí acudí a un centro o servicio</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
     <t>0,59%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
     <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
   </si>
   <si>
     <t>19,7%</t>
@@ -1671,7 +1668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CB469A-B1A9-419A-B3A7-F58A7C127DA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DD0513-9130-4555-8DB9-22ECA19953D0}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1879,16 +1876,16 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>194</v>
@@ -1897,13 +1894,13 @@
         <v>190069</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>314</v>
@@ -1912,13 +1909,13 @@
         <v>319293</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>508</v>
@@ -1927,13 +1924,13 @@
         <v>509362</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1948,13 +1945,13 @@
         <v>1031723</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>1291</v>
@@ -1963,13 +1960,13 @@
         <v>1315113</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>2329</v>
@@ -1978,18 +1975,18 @@
         <v>2346836</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2001,13 +1998,13 @@
         <v>1410578</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>1186</v>
@@ -2016,13 +2013,13 @@
         <v>1210286</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>2561</v>
@@ -2031,13 +2028,13 @@
         <v>2620863</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,13 +2049,13 @@
         <v>8327</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -2067,13 +2064,13 @@
         <v>12262</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -2082,19 +2079,19 @@
         <v>20589</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>265</v>
@@ -2103,28 +2100,28 @@
         <v>273623</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>355</v>
       </c>
       <c r="I10" s="7">
-        <v>364185</v>
+        <v>364184</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>620</v>
@@ -2133,13 +2130,13 @@
         <v>637807</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2154,28 +2151,28 @@
         <v>1692528</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>1553</v>
       </c>
       <c r="I11" s="7">
-        <v>1586733</v>
+        <v>1586732</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>3201</v>
@@ -2184,18 +2181,18 @@
         <v>3279260</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2207,13 +2204,13 @@
         <v>471800</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>351</v>
@@ -2222,13 +2219,13 @@
         <v>370317</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>805</v>
@@ -2237,13 +2234,13 @@
         <v>842117</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,13 +2255,13 @@
         <v>2563</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2273,13 +2270,13 @@
         <v>1015</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2288,19 +2285,19 @@
         <v>3579</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>71</v>
@@ -2309,13 +2306,13 @@
         <v>77045</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>100</v>
@@ -2324,13 +2321,13 @@
         <v>105079</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>171</v>
@@ -2339,13 +2336,13 @@
         <v>182124</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2357,13 @@
         <v>551408</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>452</v>
@@ -2375,13 +2372,13 @@
         <v>476412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>979</v>
@@ -2390,13 +2387,13 @@
         <v>1027820</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2410,13 @@
         <v>2715312</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>2493</v>
@@ -2428,13 +2425,13 @@
         <v>2554248</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>5157</v>
@@ -2443,13 +2440,13 @@
         <v>5269561</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,13 +2461,13 @@
         <v>19609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -2479,13 +2476,13 @@
         <v>35452</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -2494,19 +2491,19 @@
         <v>55062</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>530</v>
@@ -2515,13 +2512,13 @@
         <v>540737</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>769</v>
@@ -2530,13 +2527,13 @@
         <v>788556</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>1299</v>
@@ -2545,13 +2542,13 @@
         <v>1329293</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2563,13 @@
         <v>3275658</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>3296</v>
@@ -2581,13 +2578,13 @@
         <v>3378257</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>6509</v>
@@ -2596,18 +2593,18 @@
         <v>6653916</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2626,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A0F467-2692-40E3-A5C9-EE8F61D61CAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C52B75-1186-45CC-AE3F-19F2C78649EB}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2643,7 +2640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2750,13 +2747,13 @@
         <v>722968</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>862</v>
@@ -2765,13 +2762,13 @@
         <v>927031</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>1538</v>
@@ -2780,13 +2777,13 @@
         <v>1649999</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2798,13 @@
         <v>17486</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -2816,13 +2813,13 @@
         <v>40646</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -2831,19 +2828,19 @@
         <v>58132</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>214</v>
@@ -2852,13 +2849,13 @@
         <v>233462</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H6" s="7">
         <v>347</v>
@@ -2867,13 +2864,13 @@
         <v>369161</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M6" s="7">
         <v>561</v>
@@ -2882,13 +2879,13 @@
         <v>602623</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2900,13 @@
         <v>973916</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>1246</v>
@@ -2918,13 +2915,13 @@
         <v>1336838</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>2153</v>
@@ -2933,18 +2930,18 @@
         <v>2310754</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2956,13 +2953,13 @@
         <v>1576585</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>1212</v>
@@ -2971,13 +2968,13 @@
         <v>1302463</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>2701</v>
@@ -2986,13 +2983,13 @@
         <v>2879048</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3004,13 @@
         <v>16852</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -3022,13 +3019,13 @@
         <v>10579</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -3037,19 +3034,19 @@
         <v>27431</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>348</v>
@@ -3058,13 +3055,13 @@
         <v>368567</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>411</v>
@@ -3073,13 +3070,13 @@
         <v>442613</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>759</v>
@@ -3088,13 +3085,13 @@
         <v>811180</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3106,13 @@
         <v>1962003</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>1633</v>
@@ -3124,13 +3121,13 @@
         <v>1755656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>3487</v>
@@ -3139,18 +3136,18 @@
         <v>3717659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3162,13 +3159,13 @@
         <v>411717</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H12" s="7">
         <v>311</v>
@@ -3177,13 +3174,13 @@
         <v>344323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M12" s="7">
         <v>683</v>
@@ -3192,13 +3189,13 @@
         <v>756040</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,13 +3210,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3228,13 +3225,13 @@
         <v>956</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3243,19 +3240,19 @@
         <v>956</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>66</v>
@@ -3264,13 +3261,13 @@
         <v>69464</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>100</v>
@@ -3279,13 +3276,13 @@
         <v>113352</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>166</v>
@@ -3294,13 +3291,13 @@
         <v>182816</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3312,13 @@
         <v>481181</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>412</v>
@@ -3330,13 +3327,13 @@
         <v>458631</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>850</v>
@@ -3345,13 +3342,13 @@
         <v>939812</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3365,13 @@
         <v>2711270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>2385</v>
@@ -3383,28 +3380,28 @@
         <v>2573817</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>4922</v>
       </c>
       <c r="N16" s="7">
-        <v>5285087</v>
+        <v>5285088</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3416,13 @@
         <v>34338</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -3434,13 +3431,13 @@
         <v>52181</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
@@ -3449,19 +3446,19 @@
         <v>86519</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>628</v>
@@ -3470,13 +3467,13 @@
         <v>671493</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H18" s="7">
         <v>858</v>
@@ -3485,13 +3482,13 @@
         <v>925126</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M18" s="7">
         <v>1486</v>
@@ -3500,13 +3497,13 @@
         <v>1596619</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,48 +3518,48 @@
         <v>3417101</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>3291</v>
       </c>
       <c r="I19" s="7">
-        <v>3551124</v>
+        <v>3551125</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>6490</v>
       </c>
       <c r="N19" s="7">
-        <v>6968225</v>
+        <v>6968226</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3581,7 +3578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2883B3-CF0D-4CE2-89B2-28E895E11FEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572E5971-53EB-484A-9626-DC4C966F6004}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3598,7 +3595,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3705,13 +3702,13 @@
         <v>613283</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>693</v>
@@ -3720,13 +3717,13 @@
         <v>764778</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>1311</v>
@@ -3735,13 +3732,13 @@
         <v>1378061</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3753,13 @@
         <v>16616</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -3771,13 +3768,13 @@
         <v>25680</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -3786,19 +3783,19 @@
         <v>42296</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>125</v>
@@ -3807,13 +3804,13 @@
         <v>122455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H6" s="7">
         <v>177</v>
@@ -3822,13 +3819,13 @@
         <v>201315</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M6" s="7">
         <v>302</v>
@@ -3837,13 +3834,13 @@
         <v>323769</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3855,13 @@
         <v>752354</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>890</v>
@@ -3873,13 +3870,13 @@
         <v>991773</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>1650</v>
@@ -3888,18 +3885,18 @@
         <v>1744127</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3911,13 +3908,13 @@
         <v>1722779</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>1529</v>
@@ -3926,13 +3923,13 @@
         <v>1592548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M8" s="7">
         <v>3157</v>
@@ -3941,13 +3938,13 @@
         <v>3315328</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3959,13 @@
         <v>28535</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>134</v>
+        <v>253</v>
       </c>
       <c r="H9" s="7">
         <v>23</v>
@@ -3977,13 +3974,13 @@
         <v>24260</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M9" s="7">
         <v>50</v>
@@ -3992,19 +3989,19 @@
         <v>52795</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>257</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>291</v>
@@ -4013,13 +4010,13 @@
         <v>318324</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>355</v>
@@ -4064,13 +4061,13 @@
         <v>2069638</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>1907</v>
@@ -4079,13 +4076,13 @@
         <v>1987416</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>3853</v>
@@ -4094,18 +4091,18 @@
         <v>4057054</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4171,10 +4168,10 @@
         <v>275</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -4186,7 +4183,7 @@
         <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>277</v>
@@ -4198,19 +4195,19 @@
         <v>11672</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>65</v>
@@ -4219,13 +4216,13 @@
         <v>73835</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>119</v>
@@ -4234,13 +4231,13 @@
         <v>124640</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>184</v>
@@ -4249,13 +4246,13 @@
         <v>198475</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4267,13 @@
         <v>544959</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>524</v>
@@ -4285,13 +4282,13 @@
         <v>546453</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>1023</v>
@@ -4300,13 +4297,13 @@
         <v>1091412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,25 +4320,25 @@
         <v>2806130</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>2617</v>
       </c>
       <c r="I16" s="7">
-        <v>2768525</v>
+        <v>2768524</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>292</v>
@@ -4350,7 +4347,7 @@
         <v>5296</v>
       </c>
       <c r="N16" s="7">
-        <v>5574654</v>
+        <v>5574655</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>293</v>
@@ -4377,10 +4374,10 @@
         <v>296</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -4389,34 +4386,34 @@
         <v>60556</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>27</v>
+        <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
       </c>
       <c r="N17" s="7">
-        <v>106763</v>
+        <v>106764</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>481</v>
@@ -4425,13 +4422,13 @@
         <v>514614</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
       <c r="H18" s="7">
         <v>651</v>
@@ -4440,13 +4437,13 @@
         <v>696561</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M18" s="7">
         <v>1132</v>
@@ -4455,13 +4452,13 @@
         <v>1211175</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,48 +4473,48 @@
         <v>3366952</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>3321</v>
       </c>
       <c r="I19" s="7">
-        <v>3525642</v>
+        <v>3525641</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>6526</v>
       </c>
       <c r="N19" s="7">
-        <v>6892593</v>
+        <v>6892594</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4536,7 +4533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B75F244-B761-4B44-B7E2-6761C8475D52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D689232-6053-46A1-A40D-FF24EFC2AD94}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4553,7 +4550,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4660,13 +4657,13 @@
         <v>405443</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H4" s="7">
         <v>1011</v>
@@ -4675,13 +4672,13 @@
         <v>591016</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>1531</v>
@@ -4690,13 +4687,13 @@
         <v>996459</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4708,13 @@
         <v>7999</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>320</v>
+        <v>108</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>106</v>
+        <v>321</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>322</v>
       </c>
       <c r="H5" s="7">
         <v>34</v>
@@ -4726,13 +4723,13 @@
         <v>22458</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -4741,19 +4738,19 @@
         <v>30457</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>300</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>161</v>
@@ -4762,13 +4759,13 @@
         <v>128192</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H6" s="7">
         <v>378</v>
@@ -4777,13 +4774,13 @@
         <v>217851</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M6" s="7">
         <v>539</v>
@@ -4792,13 +4789,13 @@
         <v>346043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4810,13 @@
         <v>541634</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>1423</v>
@@ -4828,13 +4825,13 @@
         <v>831326</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>2114</v>
@@ -4843,18 +4840,18 @@
         <v>1372960</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4866,13 +4863,13 @@
         <v>1755459</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>2258</v>
@@ -4881,13 +4878,13 @@
         <v>1647959</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>3867</v>
@@ -4896,13 +4893,13 @@
         <v>3403418</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,13 +4914,13 @@
         <v>7944</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -4932,13 +4929,13 @@
         <v>5911</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>349</v>
+        <v>158</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -4947,19 +4944,19 @@
         <v>13855</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>275</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>373</v>
@@ -4968,13 +4965,13 @@
         <v>398619</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>650</v>
@@ -4983,13 +4980,13 @@
         <v>591474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>1023</v>
@@ -4998,13 +4995,13 @@
         <v>990093</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5016,13 @@
         <v>2162022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>2918</v>
@@ -5034,13 +5031,13 @@
         <v>2245344</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>4910</v>
@@ -5049,18 +5046,18 @@
         <v>4407366</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5072,13 +5069,13 @@
         <v>528546</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H12" s="7">
         <v>765</v>
@@ -5087,13 +5084,13 @@
         <v>530441</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M12" s="7">
         <v>1305</v>
@@ -5102,13 +5099,13 @@
         <v>1058987</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5120,13 @@
         <v>4676</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5138,13 +5135,13 @@
         <v>2986</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>55</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -5153,19 +5150,19 @@
         <v>7661</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>375</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>135</v>
@@ -5174,13 +5171,13 @@
         <v>137879</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H14" s="7">
         <v>233</v>
@@ -5189,13 +5186,13 @@
         <v>179516</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M14" s="7">
         <v>368</v>
@@ -5204,13 +5201,13 @@
         <v>317395</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5222,13 @@
         <v>671100</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>1003</v>
@@ -5240,13 +5237,13 @@
         <v>712943</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>1683</v>
@@ -5255,13 +5252,13 @@
         <v>1384044</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5275,13 @@
         <v>2689448</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>4034</v>
@@ -5293,13 +5290,13 @@
         <v>2769416</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M16" s="7">
         <v>6703</v>
@@ -5308,13 +5305,13 @@
         <v>5458864</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5326,13 @@
         <v>20619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5344,13 +5341,13 @@
         <v>31355</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M17" s="7">
         <v>74</v>
@@ -5359,19 +5356,19 @@
         <v>51974</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>669</v>
@@ -5380,13 +5377,13 @@
         <v>664689</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H18" s="7">
         <v>1261</v>
@@ -5395,13 +5392,13 @@
         <v>988842</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="M18" s="7">
         <v>1930</v>
@@ -5410,13 +5407,13 @@
         <v>1653532</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,13 +5428,13 @@
         <v>3374756</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>5344</v>
@@ -5446,13 +5443,13 @@
         <v>3789613</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>8707</v>
@@ -5461,18 +5458,18 @@
         <v>7164370</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32A8DAE8-1A15-40E7-9462-B5C63D4F5485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1838299F-1B3E-4AE7-BFE4-C1DB67FBB6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{383DCCAE-A606-429B-BAA4-A8E1CC5ADBD4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FDE1A2E1-12BB-4EF8-B5B5-1B0C82A315DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="402">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,1186 +77,1174 @@
     <t>80,73%</t>
   </si>
   <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>76,98%</t>
   </si>
   <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>Sí acudieron a mi domicilio</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>Sí acudí a un centro o servicio</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
     <t>75,08%</t>
   </si>
   <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>Sí acudieron a mi domicilio</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>Sí acudí a un centro o servicio</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
   </si>
   <si>
     <t>85,05%</t>
   </si>
   <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>20,4%</t>
   </si>
   <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2016 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
     <t>19,7%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
+    <t>21,35%</t>
   </si>
   <si>
     <t>26,09%</t>
   </si>
   <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DD0513-9130-4555-8DB9-22ECA19953D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5F06ED-4D39-409D-B119-37725EB04471}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2031,10 +2019,10 @@
         <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,13 +2037,13 @@
         <v>8327</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -2064,13 +2052,13 @@
         <v>12262</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -2079,13 +2067,13 @@
         <v>20589</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,28 +2088,28 @@
         <v>273623</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>355</v>
       </c>
       <c r="I10" s="7">
-        <v>364184</v>
+        <v>364185</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>620</v>
@@ -2130,13 +2118,13 @@
         <v>637807</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,7 +2151,7 @@
         <v>1553</v>
       </c>
       <c r="I11" s="7">
-        <v>1586732</v>
+        <v>1586733</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2192,7 +2180,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2204,13 +2192,13 @@
         <v>471800</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>351</v>
@@ -2219,13 +2207,13 @@
         <v>370317</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>805</v>
@@ -2234,13 +2222,13 @@
         <v>842117</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,13 +2243,13 @@
         <v>2563</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2270,13 +2258,13 @@
         <v>1015</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2285,13 +2273,13 @@
         <v>3579</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,13 +2294,13 @@
         <v>77045</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>100</v>
@@ -2321,13 +2309,13 @@
         <v>105079</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>171</v>
@@ -2336,13 +2324,13 @@
         <v>182124</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2398,13 @@
         <v>2715312</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>2493</v>
@@ -2425,13 +2413,13 @@
         <v>2554248</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>5157</v>
@@ -2440,13 +2428,13 @@
         <v>5269561</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2449,13 @@
         <v>19609</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>34</v>
@@ -2476,13 +2464,13 @@
         <v>35452</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -2491,13 +2479,13 @@
         <v>55062</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,13 +2500,13 @@
         <v>540737</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>769</v>
@@ -2527,13 +2515,13 @@
         <v>788556</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>1299</v>
@@ -2542,13 +2530,13 @@
         <v>1329293</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,7 +2592,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +2611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C52B75-1186-45CC-AE3F-19F2C78649EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACA46B0-5FC5-4A2E-89DF-0ECBDC6B4780}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2640,7 +2628,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2747,7 +2735,7 @@
         <v>722968</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>123</v>
@@ -3019,13 +3007,13 @@
         <v>10579</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>160</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -3070,13 +3058,13 @@
         <v>442613</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M10" s="7">
         <v>759</v>
@@ -3085,13 +3073,13 @@
         <v>811180</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,7 +3135,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3159,13 +3147,13 @@
         <v>411717</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H12" s="7">
         <v>311</v>
@@ -3174,13 +3162,13 @@
         <v>344323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M12" s="7">
         <v>683</v>
@@ -3189,13 +3177,13 @@
         <v>756040</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3225,13 +3213,13 @@
         <v>956</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3240,13 +3228,13 @@
         <v>956</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,7 +3279,7 @@
         <v>182816</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>189</v>
@@ -3434,10 +3422,10 @@
         <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>82</v>
@@ -3446,10 +3434,10 @@
         <v>86519</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>58</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>206</v>
@@ -3530,7 +3518,7 @@
         <v>3291</v>
       </c>
       <c r="I19" s="7">
-        <v>3551125</v>
+        <v>3551124</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3559,7 +3547,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3578,7 +3566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572E5971-53EB-484A-9626-DC4C966F6004}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FEE466-B23D-4E6E-B09B-AC0BD9837B61}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3708,7 +3696,7 @@
         <v>218</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>95</v>
       </c>
       <c r="H4" s="7">
         <v>693</v>
@@ -3717,13 +3705,13 @@
         <v>764778</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>1311</v>
@@ -3732,13 +3720,13 @@
         <v>1378061</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3741,13 @@
         <v>16616</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -3768,13 +3756,13 @@
         <v>25680</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -3783,13 +3771,13 @@
         <v>42296</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3792,13 @@
         <v>122455</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H6" s="7">
         <v>177</v>
@@ -3819,13 +3807,13 @@
         <v>201315</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M6" s="7">
         <v>302</v>
@@ -3834,13 +3822,13 @@
         <v>323769</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3896,13 @@
         <v>1722779</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>1529</v>
@@ -3923,10 +3911,10 @@
         <v>1592548</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>248</v>
@@ -3938,13 +3926,13 @@
         <v>3315328</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,10 +3947,10 @@
         <v>28535</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>253</v>
@@ -3992,7 +3980,7 @@
         <v>257</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>24</v>
@@ -4010,13 +3998,13 @@
         <v>318324</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>355</v>
@@ -4025,13 +4013,13 @@
         <v>370607</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>646</v>
@@ -4040,13 +4028,13 @@
         <v>688931</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,7 +4090,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4114,13 +4102,13 @@
         <v>470067</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H12" s="7">
         <v>395</v>
@@ -4129,13 +4117,13 @@
         <v>411198</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>270</v>
+        <v>128</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M12" s="7">
         <v>828</v>
@@ -4144,13 +4132,13 @@
         <v>881265</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4153,13 @@
         <v>1057</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -4180,13 +4168,13 @@
         <v>10615</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4195,13 +4183,13 @@
         <v>11672</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>131</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4204,13 @@
         <v>73835</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>119</v>
@@ -4231,13 +4219,13 @@
         <v>124640</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>184</v>
@@ -4246,13 +4234,13 @@
         <v>198475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,7 +4311,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>289</v>
@@ -4332,7 +4320,7 @@
         <v>2617</v>
       </c>
       <c r="I16" s="7">
-        <v>2768524</v>
+        <v>2768525</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>290</v>
@@ -4347,7 +4335,7 @@
         <v>5296</v>
       </c>
       <c r="N16" s="7">
-        <v>5574655</v>
+        <v>5574654</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>293</v>
@@ -4371,10 +4359,10 @@
         <v>46208</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>297</v>
@@ -4386,28 +4374,28 @@
         <v>60556</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
       </c>
       <c r="N17" s="7">
-        <v>106764</v>
+        <v>106763</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4410,13 @@
         <v>514614</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>305</v>
+        <v>84</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>651</v>
@@ -4437,13 +4425,13 @@
         <v>696561</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>1132</v>
@@ -4452,13 +4440,13 @@
         <v>1211175</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,7 +4473,7 @@
         <v>3321</v>
       </c>
       <c r="I19" s="7">
-        <v>3525641</v>
+        <v>3525642</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4500,7 +4488,7 @@
         <v>6526</v>
       </c>
       <c r="N19" s="7">
-        <v>6892594</v>
+        <v>6892593</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4514,7 +4502,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4533,7 +4521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D689232-6053-46A1-A40D-FF24EFC2AD94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7199E35E-D9E1-49EB-BF15-964E5126EF5C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4550,7 +4538,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4657,13 +4645,13 @@
         <v>405443</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H4" s="7">
         <v>1011</v>
@@ -4672,13 +4660,13 @@
         <v>591016</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>1531</v>
@@ -4687,13 +4675,13 @@
         <v>996459</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4696,13 @@
         <v>7999</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>321</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H5" s="7">
         <v>34</v>
@@ -4723,13 +4711,13 @@
         <v>22458</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -4738,13 +4726,13 @@
         <v>30457</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>327</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4747,13 @@
         <v>128192</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H6" s="7">
         <v>378</v>
@@ -4774,13 +4762,13 @@
         <v>217851</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M6" s="7">
         <v>539</v>
@@ -4789,13 +4777,13 @@
         <v>346043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4851,13 @@
         <v>1755459</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>2258</v>
@@ -4878,13 +4866,13 @@
         <v>1647959</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>3867</v>
@@ -4893,13 +4881,13 @@
         <v>3403418</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4902,13 @@
         <v>7944</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>346</v>
+        <v>103</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -4929,13 +4917,13 @@
         <v>5911</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>158</v>
+        <v>346</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -4944,13 +4932,13 @@
         <v>13855</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,13 +4953,13 @@
         <v>398619</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>650</v>
@@ -4980,13 +4968,13 @@
         <v>591474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>1023</v>
@@ -4995,13 +4983,13 @@
         <v>990093</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,7 +5045,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5069,13 +5057,13 @@
         <v>528546</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H12" s="7">
         <v>765</v>
@@ -5084,13 +5072,13 @@
         <v>530441</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M12" s="7">
         <v>1305</v>
@@ -5099,13 +5087,13 @@
         <v>1058987</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5108,13 @@
         <v>4676</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>365</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5135,13 +5123,13 @@
         <v>2986</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -5150,13 +5138,13 @@
         <v>7661</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5159,13 @@
         <v>137879</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>373</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>233</v>
@@ -5186,13 +5174,13 @@
         <v>179516</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>368</v>
@@ -5201,13 +5189,13 @@
         <v>317395</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5263,13 @@
         <v>2689448</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>4034</v>
@@ -5290,13 +5278,13 @@
         <v>2769416</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>6703</v>
@@ -5305,13 +5293,13 @@
         <v>5458864</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5314,13 @@
         <v>20619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>346</v>
+        <v>54</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5341,13 +5329,13 @@
         <v>31355</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>74</v>
@@ -5356,13 +5344,13 @@
         <v>51974</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5365,13 @@
         <v>664689</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>398</v>
+        <v>267</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H18" s="7">
         <v>1261</v>
@@ -5392,28 +5380,28 @@
         <v>988842</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M18" s="7">
         <v>1930</v>
       </c>
       <c r="N18" s="7">
-        <v>1653532</v>
+        <v>1653531</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,7 +5443,7 @@
         <v>8707</v>
       </c>
       <c r="N19" s="7">
-        <v>7164370</v>
+        <v>7164369</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5469,7 +5457,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1838299F-1B3E-4AE7-BFE4-C1DB67FBB6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E761D1F5-7801-4DAA-BCD3-435EF06DF20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FDE1A2E1-12BB-4EF8-B5B5-1B0C82A315DE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2E6C38B4-07BD-4C8F-A783-D9953EE1D3E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="401">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -971,280 +971,277 @@
     <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>1,56%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5F06ED-4D39-409D-B119-37725EB04471}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A422EB-326C-4B3B-BEE2-F1BCB7AAFDB3}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1960,7 +1957,7 @@
         <v>2329</v>
       </c>
       <c r="N7" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2395,7 +2392,7 @@
         <v>2664</v>
       </c>
       <c r="D16" s="7">
-        <v>2715312</v>
+        <v>2715313</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>93</v>
@@ -2425,7 +2422,7 @@
         <v>5157</v>
       </c>
       <c r="N16" s="7">
-        <v>5269561</v>
+        <v>5269560</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>99</v>
@@ -2548,7 +2545,7 @@
         <v>3213</v>
       </c>
       <c r="D19" s="7">
-        <v>3275658</v>
+        <v>3275659</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2578,7 +2575,7 @@
         <v>6509</v>
       </c>
       <c r="N19" s="7">
-        <v>6653916</v>
+        <v>6653915</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2611,7 +2608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACA46B0-5FC5-4A2E-89DF-0ECBDC6B4780}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9388ECC-C7D4-4A0E-9C5B-0BC3A154E8F5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3327,7 +3324,7 @@
         <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3380,7 +3377,7 @@
         <v>4922</v>
       </c>
       <c r="N16" s="7">
-        <v>5285088</v>
+        <v>5285087</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>197</v>
@@ -3518,7 +3515,7 @@
         <v>3291</v>
       </c>
       <c r="I19" s="7">
-        <v>3551124</v>
+        <v>3551125</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3533,7 +3530,7 @@
         <v>6490</v>
       </c>
       <c r="N19" s="7">
-        <v>6968226</v>
+        <v>6968225</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -3566,7 +3563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FEE466-B23D-4E6E-B09B-AC0BD9837B61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB76AE5F-A5A4-407F-A6D0-8CDE58014C50}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4320,7 +4317,7 @@
         <v>2617</v>
       </c>
       <c r="I16" s="7">
-        <v>2768525</v>
+        <v>2768524</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>290</v>
@@ -4473,7 +4470,7 @@
         <v>3321</v>
       </c>
       <c r="I19" s="7">
-        <v>3525642</v>
+        <v>3525641</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4521,7 +4518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7199E35E-D9E1-49EB-BF15-964E5126EF5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E60713-73EE-467A-BD7B-FDF367DCD159}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4642,7 +4639,7 @@
         <v>520</v>
       </c>
       <c r="D4" s="7">
-        <v>405443</v>
+        <v>381993</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>310</v>
@@ -4657,7 +4654,7 @@
         <v>1011</v>
       </c>
       <c r="I4" s="7">
-        <v>591016</v>
+        <v>532545</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>313</v>
@@ -4672,7 +4669,7 @@
         <v>1531</v>
       </c>
       <c r="N4" s="7">
-        <v>996459</v>
+        <v>914538</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>316</v>
@@ -4681,7 +4678,7 @@
         <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>318</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4690,13 @@
         <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>7999</v>
+        <v>7596</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>319</v>
@@ -4708,31 +4705,31 @@
         <v>34</v>
       </c>
       <c r="I5" s="7">
-        <v>22458</v>
+        <v>19570</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>320</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
       </c>
       <c r="N5" s="7">
-        <v>30457</v>
+        <v>27166</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>323</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,46 +4741,46 @@
         <v>161</v>
       </c>
       <c r="D6" s="7">
-        <v>128192</v>
+        <v>125349</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H6" s="7">
         <v>378</v>
       </c>
       <c r="I6" s="7">
-        <v>217851</v>
+        <v>199399</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M6" s="7">
         <v>539</v>
       </c>
       <c r="N6" s="7">
-        <v>346043</v>
+        <v>324747</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,7 +4792,7 @@
         <v>691</v>
       </c>
       <c r="D7" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4810,7 +4807,7 @@
         <v>1423</v>
       </c>
       <c r="I7" s="7">
-        <v>831326</v>
+        <v>751513</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4825,7 +4822,7 @@
         <v>2114</v>
       </c>
       <c r="N7" s="7">
-        <v>1372960</v>
+        <v>1266451</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4848,46 +4845,46 @@
         <v>1609</v>
       </c>
       <c r="D8" s="7">
-        <v>1755459</v>
+        <v>1886470</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>2258</v>
       </c>
       <c r="I8" s="7">
-        <v>1647959</v>
+        <v>1579278</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>3867</v>
       </c>
       <c r="N8" s="7">
-        <v>3403418</v>
+        <v>3465748</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,46 +4896,46 @@
         <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>7944</v>
+        <v>7391</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>103</v>
+        <v>343</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>343</v>
+        <v>279</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
       </c>
       <c r="I9" s="7">
-        <v>5911</v>
+        <v>5533</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>346</v>
+        <v>158</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
       </c>
       <c r="N9" s="7">
-        <v>13855</v>
+        <v>12924</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>347</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>348</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,46 +4947,46 @@
         <v>373</v>
       </c>
       <c r="D10" s="7">
-        <v>398619</v>
+        <v>396466</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>650</v>
       </c>
       <c r="I10" s="7">
-        <v>591474</v>
+        <v>649417</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>214</v>
+        <v>353</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>1023</v>
       </c>
       <c r="N10" s="7">
-        <v>990093</v>
+        <v>1045883</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,7 +4998,7 @@
         <v>1992</v>
       </c>
       <c r="D11" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5016,7 +5013,7 @@
         <v>2918</v>
       </c>
       <c r="I11" s="7">
-        <v>2245344</v>
+        <v>2234228</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5031,7 +5028,7 @@
         <v>4910</v>
       </c>
       <c r="N11" s="7">
-        <v>4407366</v>
+        <v>4524555</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5054,46 +5051,46 @@
         <v>540</v>
       </c>
       <c r="D12" s="7">
-        <v>528546</v>
+        <v>505451</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H12" s="7">
         <v>765</v>
       </c>
       <c r="I12" s="7">
-        <v>530441</v>
+        <v>488411</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M12" s="7">
         <v>1305</v>
       </c>
       <c r="N12" s="7">
-        <v>1058987</v>
+        <v>993862</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5102,13 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>4676</v>
+        <v>4480</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>366</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>367</v>
@@ -5120,31 +5117,31 @@
         <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>2986</v>
+        <v>2767</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>7661</v>
+        <v>7247</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>371</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,22 +5153,22 @@
         <v>135</v>
       </c>
       <c r="D14" s="7">
-        <v>137879</v>
+        <v>134940</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>233</v>
       </c>
       <c r="I14" s="7">
-        <v>179516</v>
+        <v>168409</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>374</v>
@@ -5186,16 +5183,16 @@
         <v>368</v>
       </c>
       <c r="N14" s="7">
-        <v>317395</v>
+        <v>303349</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,7 +5204,7 @@
         <v>680</v>
       </c>
       <c r="D15" s="7">
-        <v>671100</v>
+        <v>644870</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5222,7 +5219,7 @@
         <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>712943</v>
+        <v>659587</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5237,7 +5234,7 @@
         <v>1683</v>
       </c>
       <c r="N15" s="7">
-        <v>1384044</v>
+        <v>1304458</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5260,46 +5257,46 @@
         <v>2669</v>
       </c>
       <c r="D16" s="7">
-        <v>2689448</v>
+        <v>2773914</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>4034</v>
       </c>
       <c r="I16" s="7">
-        <v>2769416</v>
+        <v>2600234</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>6703</v>
       </c>
       <c r="N16" s="7">
-        <v>5458864</v>
+        <v>5374148</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,25 +5308,25 @@
         <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>20619</v>
+        <v>19467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>369</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>54</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
       </c>
       <c r="I17" s="7">
-        <v>31355</v>
+        <v>27870</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>390</v>
@@ -5341,16 +5338,16 @@
         <v>74</v>
       </c>
       <c r="N17" s="7">
-        <v>51974</v>
+        <v>47337</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5359,13 @@
         <v>669</v>
       </c>
       <c r="D18" s="7">
-        <v>664689</v>
+        <v>656755</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>395</v>
@@ -5377,7 +5374,7 @@
         <v>1261</v>
       </c>
       <c r="I18" s="7">
-        <v>988842</v>
+        <v>1017224</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>396</v>
@@ -5392,16 +5389,16 @@
         <v>1930</v>
       </c>
       <c r="N18" s="7">
-        <v>1653531</v>
+        <v>1673979</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>399</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,7 +5410,7 @@
         <v>3363</v>
       </c>
       <c r="D19" s="7">
-        <v>3374756</v>
+        <v>3450136</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5428,7 +5425,7 @@
         <v>5344</v>
       </c>
       <c r="I19" s="7">
-        <v>3789613</v>
+        <v>3645328</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5443,7 +5440,7 @@
         <v>8707</v>
       </c>
       <c r="N19" s="7">
-        <v>7164369</v>
+        <v>7095464</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
